--- a/settings/noreadytable/Atk_Dependence.xlsx
+++ b/settings/noreadytable/Atk_Dependence.xlsx
@@ -7,9 +7,7 @@
     <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Atk_Dependence" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -850,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,9 +866,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1186,7 +1181,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1234,19 +1229,19 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1272,38 +1267,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>